--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1773,7 +1773,7 @@
         <v>57</v>
       </c>
       <c r="B29">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
@@ -1787,7 +1787,7 @@
         <v>59</v>
       </c>
       <c r="B30">
-        <v>135</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>

--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0067</v>
+        <v>0.0031</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1479,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1507,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.2133</v>
+        <v>0.21</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1535,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.018</v>
+        <v>0.0247</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0.176</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1549,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.004</v>
+        <v>0.0038</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1563,13 +1563,13 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>0.078</v>
+        <v>0.086</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0.0004</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1619,7 +1619,7 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>0.6136</v>
+        <v>0.662</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>

--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1541,7 +1541,7 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1745,7 +1745,7 @@
         <v>53</v>
       </c>
       <c r="B27">
-        <v>0.01</v>
+        <v>1.5</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
@@ -1759,7 +1759,7 @@
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.335</v>
+        <v>0.4</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
@@ -1773,7 +1773,7 @@
         <v>57</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
@@ -1787,13 +1787,13 @@
         <v>59</v>
       </c>
       <c r="B30">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
       </c>
       <c r="E30">
-        <v>127.4</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="14940" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="guzhibiao" sheetId="1" r:id="rId1"/>
@@ -107,46 +107,46 @@
     <t>橙色陨铁</t>
   </si>
   <si>
+    <t>时空精华</t>
+  </si>
+  <si>
+    <t>炫金石头</t>
+  </si>
+  <si>
     <t>黑耀石头</t>
   </si>
   <si>
-    <t>炫金石头</t>
+    <t>红色罐子</t>
   </si>
   <si>
     <t>红色石头</t>
   </si>
   <si>
-    <t>红色罐子</t>
+    <t>橙色罐子</t>
   </si>
   <si>
     <t>黄色石头</t>
   </si>
   <si>
-    <t>橙色罐子</t>
+    <t>召唤石</t>
   </si>
   <si>
     <t>紫色罐子</t>
   </si>
   <si>
-    <t>召唤石</t>
+    <t>神器钥匙</t>
   </si>
   <si>
     <t>蓝色罐子</t>
   </si>
   <si>
-    <t>神器钥匙</t>
+    <t>异界币</t>
   </si>
   <si>
     <t>白色罐子</t>
   </si>
   <si>
-    <t>异界币</t>
-  </si>
-  <si>
     <t>生命石</t>
-  </si>
-  <si>
-    <t>公会币</t>
   </si>
   <si>
     <t>祭坛石头</t>
@@ -1364,8 +1364,8 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1527,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>0.16</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1541,7 +1541,7 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1555,7 +1555,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>0.0005</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1569,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0.0017</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>0.0005</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>0.0183</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1611,7 +1611,7 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0.0015</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1625,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>0.0002</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1639,7 +1639,7 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>0.31</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1647,7 +1647,7 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>

--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -113,7 +113,7 @@
     <t>炫金石头</t>
   </si>
   <si>
-    <t>黑耀石头</t>
+    <t>黑曜石头</t>
   </si>
   <si>
     <t>红色罐子</t>
@@ -1364,8 +1364,8 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1395,13 +1395,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.0007</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1415,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0.0003</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1429,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0.045</v>
+        <v>0.568</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>16.745</v>
+        <v>19.151</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>0.0169</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1451,13 +1451,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.35</v>
+        <v>3.91</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>11.35</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1465,13 +1465,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>4.41</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7">
-        <v>7.27</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1479,13 +1479,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.63</v>
+        <v>0.626</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>3.63</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9">
-        <v>0.606</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1507,13 +1507,13 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>0.552</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1521,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>0.81</v>
+        <v>0.66</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.0247</v>
+        <v>0.029</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1549,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.0038</v>
+        <v>0.0048</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1563,13 +1563,13 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>0.086</v>
+        <v>0.078</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0.0005</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1577,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15">
-        <v>0.0017</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1591,13 +1591,13 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>0.0565</v>
+        <v>0.102</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16">
-        <v>0.0005</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1605,13 +1605,13 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0.0183</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1619,13 +1619,13 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>0.662</v>
+        <v>0.53</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
       <c r="E18">
-        <v>0.0015</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1633,13 +1633,13 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>0.0404</v>
+        <v>0.0435</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1647,13 +1647,13 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
       </c>
       <c r="E20">
-        <v>0.0036</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1661,13 +1661,13 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>121.11</v>
+        <v>130.45</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21">
-        <v>0.61</v>
+        <v>4.4467</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1675,13 +1675,13 @@
         <v>43</v>
       </c>
       <c r="B22">
-        <v>64.6</v>
+        <v>69.58</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22">
-        <v>0.0052</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1689,13 +1689,13 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>30.28</v>
+        <v>32.62</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
       </c>
       <c r="E23">
-        <v>0.0066</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1703,13 +1703,13 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>11.31</v>
+        <v>12.18</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24">
-        <v>0.04</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1717,13 +1717,13 @@
         <v>49</v>
       </c>
       <c r="B25">
-        <v>48.44</v>
+        <v>52.18</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25">
-        <v>0.1371</v>
+        <v>0.1825</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1731,13 +1731,13 @@
         <v>51</v>
       </c>
       <c r="B26">
-        <v>12.92</v>
+        <v>1.06</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
       </c>
       <c r="E26">
-        <v>0.045</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1745,13 +1745,13 @@
         <v>53</v>
       </c>
       <c r="B27">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
       </c>
       <c r="E27">
-        <v>0.015</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1759,13 +1759,13 @@
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.4</v>
+        <v>0.9784</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
       </c>
       <c r="E28">
-        <v>0.005</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1773,13 +1773,13 @@
         <v>57</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>82.67</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
       </c>
       <c r="E29">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="30" spans="1:5">

--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="9345"/>
+    <workbookView windowWidth="13455" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="guzhibiao" sheetId="1" r:id="rId1"/>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0029</v>
+        <v>0.0032</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1409,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1429,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0.568</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>19.151</v>
+        <v>19.15</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>0.0265</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1457,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>36.69</v>
+        <v>36.39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1471,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>10.18</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1479,13 +1479,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.626</v>
+        <v>0.63</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1499,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>0.652</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1507,13 +1507,13 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>0.569</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1549,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.0048</v>
+        <v>0.005</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1577,7 +1577,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1591,7 +1591,7 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>0.102</v>
+        <v>0.12</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -1605,13 +1605,13 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0.046</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1619,13 +1619,13 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
       <c r="E18">
-        <v>0.0017</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1633,13 +1633,13 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>0.0435</v>
+        <v>0.04</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19">
-        <v>0.0008</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1661,13 +1661,13 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>130.45</v>
+        <v>69.21</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21">
-        <v>4.4467</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1675,13 +1675,13 @@
         <v>43</v>
       </c>
       <c r="B22">
-        <v>69.58</v>
+        <v>35.49</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22">
-        <v>0.0296</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1689,13 +1689,13 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>32.62</v>
+        <v>15.62</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
       </c>
       <c r="E23">
-        <v>0.0237</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1703,13 +1703,13 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>12.18</v>
+        <v>6.34</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24">
-        <v>0.0059</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1717,13 +1717,13 @@
         <v>49</v>
       </c>
       <c r="B25">
-        <v>52.18</v>
+        <v>24.6</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25">
-        <v>0.1825</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1731,13 +1731,13 @@
         <v>51</v>
       </c>
       <c r="B26">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
       </c>
       <c r="E26">
-        <v>0.0568</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1751,7 +1751,7 @@
         <v>54</v>
       </c>
       <c r="E27">
-        <v>0.0189</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1759,13 +1759,13 @@
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.9784</v>
+        <v>0.97</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
       </c>
       <c r="E28">
-        <v>0.0063</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1773,13 +1773,13 @@
         <v>57</v>
       </c>
       <c r="B29">
-        <v>82.67</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
       </c>
       <c r="E29">
-        <v>0.0021</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="30" spans="1:5">

--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13455" windowHeight="12420"/>
+    <workbookView windowWidth="17055" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="guzhibiao" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
-  <si>
-    <t>常用资源名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+  <si>
+    <t>常用资源</t>
   </si>
   <si>
     <t>估值</t>
   </si>
   <si>
-    <t>其他资源名称</t>
+    <t>其他资源</t>
+  </si>
+  <si>
+    <t>近卫等资源</t>
   </si>
   <si>
     <t>钻石</t>
@@ -44,172 +47,202 @@
     <t>紫色陨铁</t>
   </si>
   <si>
+    <t>橙色近卫</t>
+  </si>
+  <si>
     <t>蜡烛</t>
   </si>
   <si>
     <t>蓝色陨铁</t>
   </si>
   <si>
+    <t>紫色近卫</t>
+  </si>
+  <si>
     <t>粉尘</t>
   </si>
   <si>
     <t>红色星辰精华</t>
   </si>
   <si>
+    <t>蓝色近卫</t>
+  </si>
+  <si>
+    <t>橙券</t>
+  </si>
+  <si>
+    <t>紫色星辰精华</t>
+  </si>
+  <si>
+    <t>白色近卫</t>
+  </si>
+  <si>
+    <t>橙色万变</t>
+  </si>
+  <si>
+    <t>白色技能觉醒石</t>
+  </si>
+  <si>
+    <t>高级洗练石</t>
+  </si>
+  <si>
+    <t>紫券</t>
+  </si>
+  <si>
+    <t>黑色技能觉醒石</t>
+  </si>
+  <si>
+    <t>洗脸石</t>
+  </si>
+  <si>
+    <t>紫色万变</t>
+  </si>
+  <si>
+    <t>红色技能觉醒石</t>
+  </si>
+  <si>
+    <t>记忆水晶</t>
+  </si>
+  <si>
+    <t>蓝券</t>
+  </si>
+  <si>
+    <t>周活动宝剑</t>
+  </si>
+  <si>
+    <t>契约之证</t>
+  </si>
+  <si>
+    <t>蓝色万变</t>
+  </si>
+  <si>
+    <t>周活动镐子</t>
+  </si>
+  <si>
+    <t>近卫精华</t>
+  </si>
+  <si>
+    <t>红色陨铁</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>重置沙漏</t>
+  </si>
+  <si>
+    <t>橙色陨铁</t>
+  </si>
+  <si>
+    <t>珠子</t>
+  </si>
+  <si>
+    <t>重置锤子</t>
+  </si>
+  <si>
+    <t>炫金石头</t>
+  </si>
+  <si>
+    <t>黑曜石头</t>
+  </si>
+  <si>
+    <t>时空精华</t>
+  </si>
+  <si>
+    <t>红色罐子</t>
+  </si>
+  <si>
+    <t>红色石头</t>
+  </si>
+  <si>
+    <t>刷新令</t>
+  </si>
+  <si>
+    <t>橙色罐子</t>
+  </si>
+  <si>
+    <t>黄色石头</t>
+  </si>
+  <si>
     <t>地城钥匙</t>
   </si>
   <si>
-    <t>紫色星辰精华</t>
-  </si>
-  <si>
-    <t>橙券</t>
-  </si>
-  <si>
-    <t>白色技能觉醒石</t>
-  </si>
-  <si>
-    <t>橙色万变</t>
-  </si>
-  <si>
-    <t>黑色技能觉醒石</t>
-  </si>
-  <si>
-    <t>紫券</t>
-  </si>
-  <si>
-    <t>红色技能觉醒石</t>
-  </si>
-  <si>
-    <t>紫色万变</t>
-  </si>
-  <si>
-    <t>周活动宝剑</t>
-  </si>
-  <si>
-    <t>蓝券</t>
-  </si>
-  <si>
-    <t>周活动镐子</t>
-  </si>
-  <si>
-    <t>蓝色万变</t>
-  </si>
-  <si>
-    <t>镜子</t>
-  </si>
-  <si>
-    <t>红色陨铁</t>
-  </si>
-  <si>
-    <t>珠子</t>
-  </si>
-  <si>
-    <t>橙色陨铁</t>
-  </si>
-  <si>
-    <t>时空精华</t>
-  </si>
-  <si>
-    <t>炫金石头</t>
-  </si>
-  <si>
-    <t>黑曜石头</t>
-  </si>
-  <si>
-    <t>红色罐子</t>
-  </si>
-  <si>
-    <t>红色石头</t>
-  </si>
-  <si>
-    <t>橙色罐子</t>
-  </si>
-  <si>
-    <t>黄色石头</t>
-  </si>
-  <si>
     <t>召唤石</t>
   </si>
   <si>
     <t>紫色罐子</t>
   </si>
   <si>
+    <t>征收令</t>
+  </si>
+  <si>
     <t>神器钥匙</t>
   </si>
   <si>
     <t>蓝色罐子</t>
   </si>
   <si>
+    <t>战令</t>
+  </si>
+  <si>
     <t>异界币</t>
   </si>
   <si>
     <t>白色罐子</t>
   </si>
   <si>
+    <t>粉尘月卡</t>
+  </si>
+  <si>
     <t>生命石</t>
   </si>
   <si>
     <t>祭坛石头</t>
   </si>
   <si>
+    <t>荣耀征程</t>
+  </si>
+  <si>
     <t>橙色英雄</t>
   </si>
   <si>
-    <t>征收令</t>
+    <t>1W金币</t>
   </si>
   <si>
     <t>紫色英雄</t>
   </si>
   <si>
-    <t>1W金币</t>
+    <t>羽毛</t>
   </si>
   <si>
     <t>蓝色英雄</t>
   </si>
   <si>
-    <t>羽毛</t>
+    <t>红色能量石</t>
   </si>
   <si>
     <t>白色英雄</t>
   </si>
   <si>
-    <t>刷新令</t>
+    <t>橙色能量石</t>
   </si>
   <si>
     <t>橙色神器</t>
   </si>
   <si>
-    <t>红色能量石</t>
+    <t>紫色能量石</t>
   </si>
   <si>
     <t>紫色神器</t>
   </si>
   <si>
-    <t>橙色能量石</t>
+    <t>蓝色能量石</t>
   </si>
   <si>
     <t>蓝色神器</t>
   </si>
   <si>
-    <t>紫色能量石</t>
-  </si>
-  <si>
-    <t>沙漏</t>
-  </si>
-  <si>
-    <t>蓝色能量石</t>
-  </si>
-  <si>
-    <t>战令</t>
-  </si>
-  <si>
     <t>白色能量石</t>
-  </si>
-  <si>
-    <t>粉尘月卡</t>
-  </si>
-  <si>
-    <t>荣耀征程</t>
   </si>
 </sst>
 </file>
@@ -1362,21 +1395,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.4833333333333" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="4.76666666666667" customWidth="1"/>
     <col min="4" max="4" width="14.2333333333333" customWidth="1"/>
     <col min="5" max="5" width="10.1" customWidth="1"/>
+    <col min="6" max="6" width="4.525" customWidth="1"/>
+    <col min="7" max="7" width="12.15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1389,411 +1425,469 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0032</v>
+        <v>0.002933</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0.0038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>85.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3.92</v>
+        <v>4.36</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>0.0017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.0005</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0003</v>
+        <v>0.00078</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0578</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>19.15</v>
+        <v>5.45</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.0177</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>3.91</v>
+        <v>16.36</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15.33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>8.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>0.871</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>10.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>9.64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>0.63</v>
+        <v>1.83</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4.94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>2.62</v>
+        <v>0.123</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.502</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.163</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>0.01027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>0.66</v>
+        <v>0.0411</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>0.9126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>0.03</v>
+        <v>0.0101</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0.176</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>0.9126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B13">
+        <v>0.078</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>0.04107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0.24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>0.00821</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0.079</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>0.00365</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>49.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>0.46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>0.035</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>0.3323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>0.422</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>0.013</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>0.0569</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
         <v>0.005</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>0.078</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>0.0034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>0.31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>0.12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>0.0017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>0.46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>0.529</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0.003</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.38</v>
+        <v>40.04</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>0.0039</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>69.21</v>
+        <v>20.53</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>4.33</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B22">
-        <v>35.49</v>
+        <v>11.73</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E22">
-        <v>0.029</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B23">
-        <v>15.62</v>
+        <v>4.77</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E23">
-        <v>0.023</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>6.34</v>
+        <v>14.78</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E24">
-        <v>0.006</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B25">
-        <v>24.6</v>
+        <v>0.88</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>0.67</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B26">
-        <v>1.16</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E26">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <v>0.2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28">
-        <v>0.97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30">
-        <v>385</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30">
-        <v>125</v>
+        <v>0.0043</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
+++ b/src/utils/sxsyzlzq/yiji/guzhibiao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17055" windowHeight="12225"/>
+    <workbookView windowWidth="17175" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="guzhibiao" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>常用资源</t>
   </si>
@@ -134,85 +134,91 @@
     <t>橙色陨铁</t>
   </si>
   <si>
+    <t>炫金石头</t>
+  </si>
+  <si>
+    <t>重置锤子</t>
+  </si>
+  <si>
+    <t>红色罐子</t>
+  </si>
+  <si>
+    <t>黑曜石头</t>
+  </si>
+  <si>
+    <t>时空精华</t>
+  </si>
+  <si>
+    <t>橙色罐子</t>
+  </si>
+  <si>
+    <t>红色石头</t>
+  </si>
+  <si>
+    <t>刷新令</t>
+  </si>
+  <si>
+    <t>召唤石</t>
+  </si>
+  <si>
+    <t>黄色石头</t>
+  </si>
+  <si>
+    <t>地城钥匙</t>
+  </si>
+  <si>
+    <t>神器钥匙</t>
+  </si>
+  <si>
+    <t>紫色罐子</t>
+  </si>
+  <si>
     <t>珠子</t>
   </si>
   <si>
-    <t>重置锤子</t>
-  </si>
-  <si>
-    <t>炫金石头</t>
-  </si>
-  <si>
-    <t>黑曜石头</t>
-  </si>
-  <si>
-    <t>时空精华</t>
-  </si>
-  <si>
-    <t>红色罐子</t>
-  </si>
-  <si>
-    <t>红色石头</t>
-  </si>
-  <si>
-    <t>刷新令</t>
-  </si>
-  <si>
-    <t>橙色罐子</t>
-  </si>
-  <si>
-    <t>黄色石头</t>
-  </si>
-  <si>
-    <t>地城钥匙</t>
-  </si>
-  <si>
-    <t>召唤石</t>
-  </si>
-  <si>
-    <t>紫色罐子</t>
+    <t>异界币</t>
+  </si>
+  <si>
+    <t>蓝色罐子</t>
+  </si>
+  <si>
+    <t>魔盒券</t>
+  </si>
+  <si>
+    <t>公会币</t>
+  </si>
+  <si>
+    <t>白色罐子</t>
   </si>
   <si>
     <t>征收令</t>
   </si>
   <si>
-    <t>神器钥匙</t>
-  </si>
-  <si>
-    <t>蓝色罐子</t>
+    <t>生命石</t>
+  </si>
+  <si>
+    <t>祭坛石头</t>
   </si>
   <si>
     <t>战令</t>
   </si>
   <si>
-    <t>异界币</t>
-  </si>
-  <si>
-    <t>白色罐子</t>
+    <t>橙色英雄</t>
+  </si>
+  <si>
+    <t>1W金币</t>
   </si>
   <si>
     <t>粉尘月卡</t>
   </si>
   <si>
-    <t>生命石</t>
-  </si>
-  <si>
-    <t>祭坛石头</t>
+    <t>紫色英雄</t>
+  </si>
+  <si>
+    <t>羽毛</t>
   </si>
   <si>
     <t>荣耀征程</t>
-  </si>
-  <si>
-    <t>橙色英雄</t>
-  </si>
-  <si>
-    <t>1W金币</t>
-  </si>
-  <si>
-    <t>紫色英雄</t>
-  </si>
-  <si>
-    <t>羽毛</t>
   </si>
   <si>
     <t>蓝色英雄</t>
@@ -1397,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1437,19 +1443,19 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.002933</v>
+        <v>0.003227</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0.0024</v>
+        <v>0.0027</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2">
-        <v>85.36</v>
+        <v>112.94</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1457,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4.36</v>
+        <v>4.09</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1469,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="H3">
-        <v>22.76</v>
+        <v>30.12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1477,19 +1483,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.00078</v>
+        <v>0.00077</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0.0578</v>
+        <v>0.0636</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4">
-        <v>9.1</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1497,19 +1503,19 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5.45</v>
+        <v>4.88</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>0.0177</v>
+        <v>0.0161</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5">
-        <v>3.98</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1517,19 +1523,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>16.36</v>
+        <v>30.8</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>15.33</v>
+        <v>16.86</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6">
-        <v>8.54</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1537,19 +1543,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.871</v>
+        <v>0.781</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>9.64</v>
+        <v>10.6</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1557,19 +1563,19 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>1.83</v>
+        <v>4.89</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>4.94</v>
+        <v>5.43</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
       <c r="H8">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1577,19 +1583,19 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>0.123</v>
+        <v>0.194</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>0.502</v>
+        <v>0.496</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1597,19 +1603,19 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
       </c>
       <c r="H10">
-        <v>0.01027</v>
+        <v>0.01613</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1617,19 +1623,19 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.0411</v>
+        <v>0.0452</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11">
-        <v>0.9126</v>
+        <v>1.0039</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1637,19 +1643,19 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.0101</v>
+        <v>0.0111</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
       </c>
       <c r="E12">
-        <v>0.176</v>
+        <v>0.078</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
       </c>
       <c r="H12">
-        <v>0.9126</v>
+        <v>1.0039</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1657,19 +1663,19 @@
         <v>37</v>
       </c>
       <c r="B13">
-        <v>0.078</v>
+        <v>0.24</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13">
-        <v>0.04107</v>
+        <v>0.06453</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
       </c>
       <c r="H13">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1677,19 +1683,19 @@
         <v>40</v>
       </c>
       <c r="B14">
-        <v>0.24</v>
+        <v>0.087</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14">
-        <v>0.00821</v>
+        <v>0.01093</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
       <c r="H14">
-        <v>0.004</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1697,13 +1703,13 @@
         <v>43</v>
       </c>
       <c r="B15">
-        <v>0.079</v>
+        <v>0.46</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
       </c>
       <c r="E15">
-        <v>0.00365</v>
+        <v>0.00193</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1717,19 +1723,19 @@
         <v>46</v>
       </c>
       <c r="B16">
-        <v>0.46</v>
+        <v>0.465</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
       </c>
       <c r="E16">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
       </c>
       <c r="H16">
-        <v>0.3323</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1737,19 +1743,19 @@
         <v>49</v>
       </c>
       <c r="B17">
-        <v>0.422</v>
+        <v>0.0753</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
       <c r="E17">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="G17" t="s">
         <v>51</v>
       </c>
       <c r="H17">
-        <v>85</v>
+        <v>0.04542</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1757,7 +1763,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>0.0569</v>
+        <v>0.01</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -1769,7 +1775,7 @@
         <v>54</v>
       </c>
       <c r="H18">
-        <v>385</v>
+        <v>0.3239</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1789,15 +1795,15 @@
         <v>57</v>
       </c>
       <c r="H19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>58</v>
       </c>
       <c r="B20">
-        <v>40.04</v>
+        <v>44.04</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -1805,86 +1811,98 @@
       <c r="E20">
         <v>0.0022</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
-        <v>20.53</v>
+        <v>22.59</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>0.0018</v>
+        <v>0.0017</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>11.73</v>
+        <v>12.91</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22">
-        <v>0.352</v>
+        <v>0.3868</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E23">
-        <v>0.117</v>
+        <v>0.1286</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>14.78</v>
+        <v>16.26</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24">
-        <v>0.0389</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>0.0129</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>0.1</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>0.0043</v>
